--- a/biology/Botanique/Streptopus/Streptopus.xlsx
+++ b/biology/Botanique/Streptopus/Streptopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptopus est un genre de plantes à fleurs de la famille des liliacées (ou des asparagacées selon les classifications).
 </t>
@@ -511,10 +523,12 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ethnobotaniste François Couplan rapporte dans un ouvrage de 2009 que les fruits et jeunes pousses de  S. amplexifolius était autrefois consommées par les amérindiens du nord ; après cuisson [1]. 
-On sait maintenant que leurs baies contiennent des saponines susceptibles de provoquer des troubles digestifs et sanguins (hémolyse)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ethnobotaniste François Couplan rapporte dans un ouvrage de 2009 que les fruits et jeunes pousses de  S. amplexifolius était autrefois consommées par les amérindiens du nord ; après cuisson . 
+On sait maintenant que leurs baies contiennent des saponines susceptibles de provoquer des troubles digestifs et sanguins (hémolyse). 
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (5 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (5 août 2015) :
 Streptopus amplexifolius (L.) DC.
 Streptopus lanceolatus (Ait.) Reveal -- Streptope rose
 Streptopus × oreopolus Fern. (pro sp.)
 Streptopus streptopoides (Ledeb.) Frye &amp; Rigg
-Selon NCBI  (5 août 2015)[3] :
+Selon NCBI  (5 août 2015) :
 Streptopus amplexicaulis
 Streptopus amplexifolius
 Streptopus koreanus
